--- a/biology/Histoire de la zoologie et de la botanique/Pellegrino_von_Strobel/Pellegrino_von_Strobel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pellegrino_von_Strobel/Pellegrino_von_Strobel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pellegrino von Strobel (Milan, 22 août 1821 - Traversetolo, 8 juin 1895) est un naturaliste et préhistorien italien.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une très ancienne famille du Tyrol autrichien qui s'est installée à Milan lors de l’occupation autrichienne, Pellegrino von Strobel étudie le droit puis les sciences naturelles à Parme.
 Au début de sa carrière, il étudie plus particulièrement les mollusques (malacologie).
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Studi su la Malacologia Ungherese, 1850 Lire en ligne.
 Notizie malacostatiche sul Trentino, 1851 Lire en ligne.
